--- a/data/edges_100_degree_distribution.xlsx
+++ b/data/edges_100_degree_distribution.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,32 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Grad\CSCI Network\project\twitter_stan_network\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D40127F0-A227-4D89-899F-CC532DCB6752}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784E791E-CB03-4D6D-910D-D4B965C5197E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edges_100_degree_distribution" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">edges_100_degree_distribution!$A$1:$B$101</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">edges_100_degree_distribution!$A$2:$A$102</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">edges_100_degree_distribution!$C$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">edges_100_degree_distribution!$B$2:$B$102</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">edges_100_degree_distribution!$A$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">edges_100_degree_distribution!$A$2:$A$102</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">edges_100_degree_distribution!$C$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">edges_100_degree_distribution!$C$2:$C$102</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">edges_100_degree_distribution!$C$2:$C$102</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">edges_100_degree_distribution!$A$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">edges_100_degree_distribution!$A$2:$A$102</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">edges_100_degree_distribution!$B$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">edges_100_degree_distribution!$B$2:$B$102</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">edges_100_degree_distribution!$A$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">edges_100_degree_distribution!$A$2:$A$102</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">edges_100_degree_distribution!$B$1</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">edges_100_degree_distribution!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">edges_100_degree_distribution!$A$2:$A$102</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">edges_100_degree_distribution!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">edges_100_degree_distribution!$B$2:$B$102</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">edges_100_degree_distribution!$A$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">edges_100_degree_distribution!$A$2:$A$102</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">edges_100_degree_distribution!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">edges_100_degree_distribution!$B$2:$B$102</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -52,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -671,247 +664,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>310</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>66</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="31">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="43">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>64</c:v>
-                </c:pt>
                 <c:pt idx="53">
-                  <c:v>8</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>14</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="56">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>126</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="59">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="80">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="64">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1001</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>465</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>719</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>558</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="80">
-                  <c:v>151</c:v>
+                <c:pt idx="98">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,247 +973,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6231884057971016E-2</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1739130434782608E-2</c:v>
+                  <c:v>1.9417475728155338E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4492753623188406E-2</c:v>
+                  <c:v>9.7087378640776691E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4492753623188406E-2</c:v>
+                  <c:v>1.4563106796116505E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4492753623188406E-2</c:v>
+                  <c:v>1.9417475728155338E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6231884057971016E-2</c:v>
+                  <c:v>9.7087378640776691E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4492753623188406E-2</c:v>
+                  <c:v>1.4563106796116505E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.1739130434782608E-2</c:v>
+                  <c:v>1.4563106796116505E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>9.7087378640776691E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>9.7087378640776691E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>1.9417475728155338E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4492753623188406E-2</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4492753623188406E-2</c:v>
+                  <c:v>9.7087378640776691E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4492753623188406E-2</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4492753623188406E-2</c:v>
+                  <c:v>1.9417475728155338E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.8985507246376812E-2</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>9.7087378640776691E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4492753623188406E-2</c:v>
+                  <c:v>9.7087378640776691E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.4492753623188406E-2</c:v>
+                  <c:v>1.9417475728155338E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.4492753623188406E-2</c:v>
+                  <c:v>1.9417475728155338E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>2.9126213592233011E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4492753623188406E-2</c:v>
+                  <c:v>3.3980582524271843E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.6231884057971016E-2</c:v>
+                  <c:v>9.7087378640776691E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.4492753623188406E-2</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>9.7087378640776691E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4492753623188406E-2</c:v>
+                  <c:v>1.4563106796116505E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.4492753623188406E-2</c:v>
+                  <c:v>9.7087378640776691E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>9.7087378640776691E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>2.4271844660194174E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>1.9417475728155338E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.1739130434782608E-2</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.3478260869565216E-2</c:v>
+                  <c:v>1.4563106796116505E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.1739130434782608E-2</c:v>
+                  <c:v>9.7087378640776691E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.4492753623188406E-2</c:v>
+                  <c:v>1.4563106796116505E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>1.4563106796116505E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.4492753623188406E-2</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.8985507246376812E-2</c:v>
+                  <c:v>2.4271844660194174E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.4492753623188406E-2</c:v>
+                  <c:v>1.4563106796116505E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>2.9126213592233011E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>2.9126213592233011E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.4492753623188406E-2</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.4492753623188406E-2</c:v>
+                  <c:v>9.7087378640776691E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>9.7087378640776691E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>1.4563106796116505E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.1739130434782608E-2</c:v>
+                  <c:v>9.7087378640776691E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>9.7087378640776691E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.8985507246376812E-2</c:v>
+                  <c:v>1.9417475728155338E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>1.4563106796116505E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>9.7087378640776691E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>9.7087378640776691E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.4492753623188406E-2</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>9.7087378640776691E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>9.7087378640776691E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>1.4563106796116505E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>9.7087378640776691E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>9.7087378640776691E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>2.4271844660194174E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7.246376811594203E-3</c:v>
+                  <c:v>9.7087378640776691E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.7087378640776691E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.8543689320388345E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.8543689320388345E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.7087378640776691E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.8543689320388345E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.8543689320388345E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.8543689320388345E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.8543689320388345E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.7087378640776691E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.8543689320388345E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.7087378640776691E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.8543689320388345E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.8543689320388345E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.8543689320388345E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.8543689320388345E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.8543689320388345E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.8543689320388345E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.8543689320388345E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.8543689320388345E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1483,12 +1590,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1498,7 +1605,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{CE47D118-9FA8-4B72-BE3D-AFC5A47BD211}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>degree</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1517,7 +1624,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{C68C8841-A1EA-4711-92FF-852CDA2004F1}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>count</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2834,15 +2941,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
+      <xdr:colOff>563880</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3166,11 +3273,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3188,110 +3295,110 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <f>B2/SUM($B$2:$B$82)</f>
-        <v>7.246376811594203E-3</v>
+        <f>B2/SUM($B$2:$B$101)</f>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="0">B3/SUM($B$2:$B$82)</f>
-        <v>3.6231884057971016E-2</v>
+        <f t="shared" ref="C3:C66" si="0">B3/SUM($B$2:$B$101)</f>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>2.1739130434782608E-2</v>
+        <v>1.9417475728155338E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>1.4492753623188406E-2</v>
+        <v>9.7087378640776691E-3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>1.4492753623188406E-2</v>
+        <v>1.4563106796116505E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>1.4492753623188406E-2</v>
+        <v>1.9417475728155338E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>3.6231884057971016E-2</v>
+        <v>9.7087378640776691E-3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3299,540 +3406,540 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>1.4492753623188406E-2</v>
+        <v>1.4563106796116505E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>2.1739130434782608E-2</v>
+        <v>1.4563106796116505E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>9.7087378640776691E-3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>9.7087378640776691E-3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>1.9417475728155338E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>1.4492753623188406E-2</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>1.4492753623188406E-2</v>
+        <v>9.7087378640776691E-3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>1.4492753623188406E-2</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>1.4492753623188406E-2</v>
+        <v>1.9417475728155338E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2.8985507246376812E-2</v>
+        <v>4.8543689320388345E-3</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>9.7087378640776691E-3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>1.4492753623188406E-2</v>
+        <v>9.7087378640776691E-3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>1.4492753623188406E-2</v>
+        <v>1.9417475728155338E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>1.4492753623188406E-2</v>
+        <v>1.9417475728155338E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>2.9126213592233011E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>1.4492753623188406E-2</v>
+        <v>3.3980582524271843E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>3.6231884057971016E-2</v>
+        <v>9.7087378640776691E-3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>1.4492753623188406E-2</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>9.7087378640776691E-3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>1.4492753623188406E-2</v>
+        <v>1.4563106796116505E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>1.4492753623188406E-2</v>
+        <v>9.7087378640776691E-3</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>9.7087378640776691E-3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>2.4271844660194174E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>1.9417475728155338E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>2.1739130434782608E-2</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>4.3478260869565216E-2</v>
+        <v>1.4563106796116505E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>2.1739130434782608E-2</v>
+        <v>9.7087378640776691E-3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>1.4492753623188406E-2</v>
+        <v>1.4563106796116505E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>1.4563106796116505E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>1.4492753623188406E-2</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>2.8985507246376812E-2</v>
+        <v>2.4271844660194174E-2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>1.4492753623188406E-2</v>
+        <v>1.4563106796116505E-2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>2.9126213592233011E-2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>330</v>
+        <v>8</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>2.9126213592233011E-2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>1.4492753623188406E-2</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>1.4492753623188406E-2</v>
+        <v>9.7087378640776691E-3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>9.7087378640776691E-3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>1.4563106796116505E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>2.1739130434782608E-2</v>
+        <v>9.7087378640776691E-3</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -3840,327 +3947,555 @@
         <v>63</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>9.7087378640776691E-3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B57">
         <v>4</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>2.8985507246376812E-2</v>
+        <v>1.9417475728155338E-2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>1.4563106796116505E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>9.7087378640776691E-3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>9.7087378640776691E-3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>7.246376811594203E-3</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>23</v>
+        <v>1001</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>1.4492753623188406E-2</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>1001</v>
+        <v>18</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C82" si="1">B67/SUM($B$2:$B$82)</f>
-        <v>7.246376811594203E-3</v>
+        <f t="shared" ref="C67:C101" si="1">B67/SUM($B$2:$B$101)</f>
+        <v>9.7087378640776691E-3</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
-        <v>7.246376811594203E-3</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
-        <v>7.246376811594203E-3</v>
+        <v>9.7087378640776691E-3</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
-        <v>7.246376811594203E-3</v>
+        <v>1.4563106796116505E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
-        <v>7.246376811594203E-3</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>56</v>
+        <v>239</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
-        <v>7.246376811594203E-3</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>238</v>
+        <v>720</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
-        <v>7.246376811594203E-3</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>719</v>
+        <v>559</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74">
         <f t="shared" si="1"/>
-        <v>7.246376811594203E-3</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>558</v>
+        <v>203</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
-        <v>7.246376811594203E-3</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>203</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76">
         <f t="shared" si="1"/>
-        <v>7.246376811594203E-3</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77">
         <f t="shared" si="1"/>
-        <v>7.246376811594203E-3</v>
+        <v>9.7087378640776691E-3</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78">
         <f t="shared" si="1"/>
-        <v>7.246376811594203E-3</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79">
         <f t="shared" si="1"/>
-        <v>7.246376811594203E-3</v>
+        <v>9.7087378640776691E-3</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C80">
         <f t="shared" si="1"/>
-        <v>7.246376811594203E-3</v>
+        <v>2.4271844660194174E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81">
         <f t="shared" si="1"/>
-        <v>7.246376811594203E-3</v>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
-        <v>7.246376811594203E-3</v>
+        <v>9.7087378640776691E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>42</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>9.7087378640776691E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>46</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>4.8543689320388345E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>702</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>4.8543689320388345E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>31</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>9.7087378640776691E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>82</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>4.8543689320388345E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>70</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>4.8543689320388345E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>95</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>4.8543689320388345E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>136</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>4.8543689320388345E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>55</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>9.7087378640776691E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>140</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>4.8543689320388345E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>89</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>9.7087378640776691E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>154</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>4.8543689320388345E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>108</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>4.8543689320388345E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>259</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>4.8543689320388345E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>180</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>4.8543689320388345E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>174</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>4.8543689320388345E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>59</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>4.8543689320388345E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>78</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>4.8543689320388345E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>68</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>4.8543689320388345E-3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B101">
+  <autoFilter ref="A1:B101" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:B101">
       <sortCondition ref="B1:B101"/>
     </sortState>
